--- a/kbs verslagen/9. Projectdocumentatie (voortgangs-, tijdschrijf-, eventuele notulen, projectdocumentatie, planning)/Tijdschrijfformulieren/Tijdschrijfformulier Sem van der Meulen.xlsx
+++ b/kbs verslagen/9. Projectdocumentatie (voortgangs-, tijdschrijf-, eventuele notulen, projectdocumentatie, planning)/Tijdschrijfformulieren/Tijdschrijfformulier Sem van der Meulen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meule\OneDrive\Bureaublad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projectkbs\kbs verslagen\9. Projectdocumentatie (voortgangs-, tijdschrijf-, eventuele notulen, projectdocumentatie, planning)\Tijdschrijfformulieren\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAC88C5-84A4-4440-B2D8-9587112ABAB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D84DB4-A67C-4C32-BB4F-46440838DE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectlid1" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Projectlid6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Projectlid1!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Projectlid1!$A$1:$D$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Projectlid2!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Projectlid3!$A$1:$D$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Projectlid4!$A$1:$D$47</definedName>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="34">
   <si>
     <t>Tijdschrijfformulier</t>
   </si>
@@ -142,6 +140,12 @@
   </si>
   <si>
     <t>Veel momenten heb ik er niet tussen staan. Ik heb dus tijden bij elkaar toegevoegd</t>
+  </si>
+  <si>
+    <t>Workshops</t>
+  </si>
+  <si>
+    <t>Dit kon ik niet meer op de toevoegen dus plaats ik het hier</t>
   </si>
 </sst>
 </file>
@@ -243,8 +247,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D45" totalsRowShown="0">
-  <autoFilter ref="A9:D45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1572" displayName="Table1572" ref="A9:D49" totalsRowShown="0">
+  <autoFilter ref="A9:D49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Activiteit"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Datum"/>
@@ -641,22 +645,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26.45" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -664,7 +668,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -672,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -680,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -688,37 +692,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <f>SUM(C10:C152)/60</f>
-        <v>105.66666666666667</v>
+        <f>SUM(C10:C156)/60</f>
+        <v>120.66666666666667</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <f>(2*3*28)-(SUM(C10:C152)/60)</f>
-        <v>62.333333333333329</v>
+        <f>(2*3*28)-(SUM(C10:C156)/60)</f>
+        <v>47.333333333333329</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -732,7 +736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -743,7 +747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -754,15 +758,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>43754</v>
       </c>
       <c r="C12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>43766</v>
       </c>
@@ -770,7 +774,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>43768</v>
       </c>
@@ -778,7 +782,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>43774</v>
       </c>
@@ -786,7 +790,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>43780</v>
       </c>
@@ -794,7 +798,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>43781</v>
       </c>
@@ -802,7 +806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>43783</v>
       </c>
@@ -810,7 +814,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>43784</v>
       </c>
@@ -818,7 +822,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -829,7 +833,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -840,7 +844,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -851,7 +855,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -862,7 +866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -873,7 +877,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -884,7 +888,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -895,7 +899,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -906,7 +910,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -917,7 +921,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -928,7 +932,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>43811</v>
       </c>
@@ -936,7 +940,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -947,7 +951,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -958,7 +962,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -969,7 +973,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -980,7 +984,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -991,7 +995,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -999,10 +1003,10 @@
         <v>43829</v>
       </c>
       <c r="C36">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1013,7 +1017,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1024,7 +1028,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1033,6 +1037,17 @@
       </c>
       <c r="C39">
         <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>360</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,15 +1056,25 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1080,16 +1105,16 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26.45" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1097,25 +1122,25 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,7 +1152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1139,10 +1164,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1196,16 +1221,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26.45" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1213,25 +1238,25 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1255,10 +1280,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1312,16 +1337,16 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26.45" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1329,25 +1354,25 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1371,10 +1396,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1428,16 +1453,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26.45" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1445,25 +1470,25 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1475,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1487,10 +1512,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1545,16 +1570,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="25.75" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" hidden="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26.45" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1562,25 +1587,25 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1592,7 +1617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1604,10 +1629,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="24.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1655,20 +1680,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="e7647ff1-e2f7-42a1-a68c-3c96587cf758" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1881,6 +1906,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241D7108-AF27-4EE7-8B56-8DE5736E6E29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1893,14 +1926,6 @@
     <ds:schemaRef ds:uri="7178be8b-d0ef-4995-97d9-396f4bad9a56"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC37EE7-F303-4AA4-9912-15E2B786CD45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
